--- a/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -776,7 +776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -911,7 +911,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-certainty}
+    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.2.0}
 </t>
   </si>
   <si>
@@ -933,7 +933,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-duration}
+    <t xml:space="preserve">Extension {allergyintolerance-duration|5.2.0}
 </t>
   </si>
   <si>
@@ -949,7 +949,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-location}
+    <t xml:space="preserve">Extension {openEHR-location|5.2.0}
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>exposureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDate}
+    <t xml:space="preserve">Extension {openEHR-exposureDate|5.2.0}
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
     <t>exposureDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDuration}
+    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.2.0}
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
     <t>exposureDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDescription}
+    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.2.0}
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>management</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-management}
+    <t xml:space="preserve">Extension {openEHR-management|5.2.0}
 </t>
   </si>
   <si>
@@ -1489,17 +1489,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="200.4609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="212.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1508,25 +1508,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.39453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.6328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-allergyintolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -712,7 +712,7 @@
     <t>AllergyIntolerance.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -911,7 +911,7 @@
     <t>certainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.2.0}
+    <t xml:space="preserve">Extension {allergyintolerance-certainty|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -924,6 +924,10 @@
     <t>When certainty is missing, it means no information exists (although it could be in narrative).  By contrast, the unknown code is used when there is an explicit assertion that certainty is not known, such as when a patient eats a meal and it is unknown which food caused the reaction.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>uncertaintyCode</t>
   </si>
   <si>
@@ -933,7 +937,7 @@
     <t>duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {allergyintolerance-duration|5.2.0}
+    <t xml:space="preserve">Extension {allergyintolerance-duration|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -949,7 +953,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-location|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-location|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -965,7 +969,7 @@
     <t>exposureDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDate|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDate|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -984,7 +988,7 @@
     <t>exposureDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDuration|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1000,7 +1004,7 @@
     <t>exposureDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-exposureDescription|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1016,7 +1020,7 @@
     <t>management</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {openEHR-management|5.2.0}
+    <t xml:space="preserve">Extension {openEHR-management|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1150,7 +1154,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SAS].target[classCode=SBADM, code &lt;= ExposureCode].routeCode</t>
@@ -4725,13 +4729,13 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>81</v>
@@ -4742,13 +4746,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>81</v>
@@ -4770,13 +4774,13 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4836,7 +4840,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>140</v>
@@ -4853,13 +4857,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>81</v>
@@ -4881,13 +4885,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4947,7 +4951,7 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>140</v>
@@ -4964,13 +4968,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
@@ -4992,16 +4996,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5060,7 +5064,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>140</v>
@@ -5077,13 +5081,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>81</v>
@@ -5105,13 +5109,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5171,7 +5175,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>140</v>
@@ -5188,13 +5192,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>81</v>
@@ -5216,13 +5220,13 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5282,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>140</v>
@@ -5299,13 +5303,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>274</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>81</v>
@@ -5327,13 +5331,13 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5393,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>140</v>
@@ -5410,14 +5414,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5439,10 +5443,10 @@
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>138</v>
@@ -5497,7 +5501,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5523,10 +5527,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5552,13 +5556,13 @@
         <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5588,7 +5592,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -5606,7 +5610,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5621,7 +5625,7 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -5632,14 +5636,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5661,13 +5665,13 @@
         <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5697,7 +5701,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -5715,7 +5719,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>89</v>
@@ -5736,19 +5740,19 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5770,13 +5774,13 @@
         <v>269</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5826,7 +5830,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5841,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -5852,10 +5856,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5881,10 +5885,10 @@
         <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5935,7 +5939,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -5956,15 +5960,15 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5990,13 +5994,13 @@
         <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6025,10 +6029,10 @@
         <v>160</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6046,7 +6050,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6072,10 +6076,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6101,13 +6105,13 @@
         <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6133,13 +6137,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6157,7 +6161,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6172,7 +6176,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -6183,10 +6187,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6212,13 +6216,13 @@
         <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6268,7 +6272,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
